--- a/data/trans_dic/IP16B10-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/IP16B10-Estudios-trans_dic.xlsx
@@ -572,7 +572,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -587,7 +587,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="I2" s="3" t="inlineStr">
@@ -602,7 +602,7 @@
       </c>
       <c r="K2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
@@ -800,7 +800,7 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>23,72; 100,0</t>
+          <t>28,35; 100,0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -830,7 +830,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>45,44; 100,0</t>
+          <t>38,32; 100,0</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -1020,7 +1020,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>32,55; 100,0</t>
+          <t>33,33; 100,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1050,12 +1050,12 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>62,12; 100,0</t>
+          <t>60,98; 100,0</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>33,05; 100,0</t>
+          <t>24,61; 100,0</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP16B10-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/IP16B10-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -537,14 +537,14 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="G1" s="3" t="n"/>
@@ -632,12 +632,12 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -647,12 +647,12 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -685,27 +685,27 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
           <t>22,85; 100</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
+      <c r="G5" s="2" t="inlineStr">
         <is>
           <t>22,85; 100</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -747,22 +747,22 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
           <t>81,31%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>100,0%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>100,0%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>100,0%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -795,27 +795,27 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>81,26; 100</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>55,59; 100</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>43,07; 100</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>28,35; 100,0</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
+      <c r="F7" s="2" t="inlineStr">
         <is>
           <t>43,07; 100</t>
         </is>
       </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>81,26; 100</t>
-        </is>
-      </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>55,59; 100</t>
+          <t>20,0; 100,0</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -830,7 +830,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>38,32; 100,0</t>
+          <t>35,38; 100,0</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -857,27 +857,27 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>100,0%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>100,0%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>100,0%</t>
-        </is>
-      </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -905,32 +905,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>55,59; 100</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>43,07; 100</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>0; 77,15</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
           <t>22,85; 100</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
+      <c r="G9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E9" s="2" t="inlineStr">
+      <c r="H9" s="2" t="inlineStr">
         <is>
           <t>22,85; 100</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>55,59; 100</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>43,07; 100</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>0; 77,15</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -967,27 +967,27 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>66,56%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
           <t>84,07%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>100,0%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>100,0%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>100,0%</t>
-        </is>
-      </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>66,56%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -1015,34 +1015,34 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>85,49; 100</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>69,43; 100</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 100,0</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
           <t>63,75; 100</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>33,33; 100,0</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>33,26; 100,0</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
         <is>
           <t>55,59; 100</t>
         </is>
       </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>85,49; 100</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>69,43; 100</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 100,0</t>
-        </is>
-      </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
           <t>88,85; 100</t>
@@ -1050,12 +1050,12 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>60,98; 100,0</t>
+          <t>62,8; 100,0</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>24,61; 100,0</t>
+          <t>25,81; 100,0</t>
         </is>
       </c>
     </row>
